--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pat\Academics\4thYear1stSem\CMSC 190\TeX-Files\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46F4BE5-925C-4E8E-A660-748D5BDA719F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402C9632-9986-43A8-84A6-4E3D033B8AC1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{55E2A40D-C39F-4119-B498-19C80E913703}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="2" xr2:uid="{55E2A40D-C39F-4119-B498-19C80E913703}"/>
   </bookViews>
   <sheets>
-    <sheet name="Virads" sheetId="1" r:id="rId1"/>
+    <sheet name="TSS" sheetId="3" r:id="rId1"/>
+    <sheet name="TIP_DECOMP" sheetId="2" r:id="rId2"/>
+    <sheet name="VirAds" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="5">
   <si>
     <t>Threshold</t>
   </si>
@@ -398,6 +400,268 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA61768F-5F71-4C7B-9160-4263C56FB428}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AC1909-89E3-45EA-AED3-9583D423A7C2}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DB7936-13E2-4617-905A-F81452F9D47E}">
   <dimension ref="A1:G13"/>
   <sheetViews>

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pat\Academics\4thYear1stSem\CMSC 190\TeX-Files\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cary.quibada\Desktop\References 190\TeX-Files\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402C9632-9986-43A8-84A6-4E3D033B8AC1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="2" xr2:uid="{55E2A40D-C39F-4119-B498-19C80E913703}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TSS" sheetId="3" r:id="rId1"/>
-    <sheet name="TIP_DECOMP" sheetId="2" r:id="rId2"/>
-    <sheet name="VirAds" sheetId="1" r:id="rId3"/>
+    <sheet name="Greedy" sheetId="4" r:id="rId2"/>
+    <sheet name="TIP_DECOMP" sheetId="2" r:id="rId3"/>
+    <sheet name="VirAds" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="5">
   <si>
     <t>Threshold</t>
   </si>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,23 +400,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA61768F-5F71-4C7B-9160-4263C56FB428}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="2" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +433,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -467,52 +467,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -531,23 +531,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AC1909-89E3-45EA-AED3-9583D423A7C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +557,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -578,7 +571,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -598,52 +591,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -662,23 +655,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DB7936-13E2-4617-905A-F81452F9D47E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="2" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +688,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -709,7 +702,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -729,52 +722,183 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
